--- a/Extras/Sredictio Update Plans.xlsx
+++ b/Extras/Sredictio Update Plans.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Guest1/PycharmProjects/Sredictio/Extra Resources/Update Plans/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Guest1/PycharmProjects/Sredictio/Extras/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{354F60BB-87FB-184C-8DA9-6B1E91378F3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A4B53C-734D-BA4D-84AE-58150EAC7710}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15500" xr2:uid="{3232E5AE-6A7F-B64A-B3E6-CB156A166CEB}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15500" activeTab="1" xr2:uid="{3232E5AE-6A7F-B64A-B3E6-CB156A166CEB}"/>
   </bookViews>
   <sheets>
     <sheet name="Version 0.2.0" sheetId="1" r:id="rId1"/>
@@ -174,12 +174,6 @@
     <t>VERSION 0.3.0: THE GUI UPDATE</t>
   </si>
   <si>
-    <t>Implement a working GUI</t>
-  </si>
-  <si>
-    <t>Waiting for 0.2.0 to be released</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Convert all </t>
     </r>
@@ -210,6 +204,12 @@
   </si>
   <si>
     <t>PTFU</t>
+  </si>
+  <si>
+    <t>Implement Sredictio Updater program</t>
+  </si>
+  <si>
+    <t>Implement a working GUI for Sredictio</t>
   </si>
 </sst>
 </file>
@@ -867,8 +867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{943617D6-B2A8-FD44-B39F-D04B6B72B26A}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="157" zoomScaleNormal="157" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView zoomScale="157" zoomScaleNormal="157" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -904,7 +904,7 @@
         <v>6</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G2" s="14"/>
     </row>
@@ -920,10 +920,10 @@
       </c>
       <c r="D3" s="3"/>
       <c r="F3" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -946,7 +946,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>7</v>
@@ -1079,7 +1079,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BF3DC79-FF58-EF4D-9F3A-55EB212D1861}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="157" zoomScaleNormal="157" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="157" zoomScaleNormal="157" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
@@ -1116,7 +1116,7 @@
         <v>6</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G2" s="14"/>
     </row>
@@ -1125,19 +1125,17 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="D3" s="3"/>
       <c r="F3" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -1145,21 +1143,23 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="5"/>
+      <c r="B5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">

--- a/Extras/Sredictio Update Plans.xlsx
+++ b/Extras/Sredictio Update Plans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Guest1/PycharmProjects/Sredictio/Extras/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A4B53C-734D-BA4D-84AE-58150EAC7710}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052214D1-FF38-E542-9DB4-59260BF89997}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15500" activeTab="1" xr2:uid="{3232E5AE-6A7F-B64A-B3E6-CB156A166CEB}"/>
   </bookViews>
@@ -1158,7 +1158,7 @@
         <v>24</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" s="3"/>
     </row>

--- a/Extras/Sredictio Update Plans.xlsx
+++ b/Extras/Sredictio Update Plans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Guest1/PycharmProjects/Sredictio/Extras/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052214D1-FF38-E542-9DB4-59260BF89997}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD84F8A2-7838-084E-9D02-DCFF0118F646}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15500" activeTab="1" xr2:uid="{3232E5AE-6A7F-B64A-B3E6-CB156A166CEB}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
   <si>
     <t>No.</t>
   </si>
@@ -174,6 +174,21 @@
     <t>VERSION 0.3.0: THE GUI UPDATE</t>
   </si>
   <si>
+    <t>LEGEND</t>
+  </si>
+  <si>
+    <t>Pushed to a Future Update</t>
+  </si>
+  <si>
+    <t>PTFU</t>
+  </si>
+  <si>
+    <t>Implement Sredictio Updater program</t>
+  </si>
+  <si>
+    <t>Implement a working GUI for Sredictio</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Convert all </t>
     </r>
@@ -197,19 +212,7 @@
     </r>
   </si>
   <si>
-    <t>LEGEND</t>
-  </si>
-  <si>
-    <t>Pushed to a Future Update</t>
-  </si>
-  <si>
-    <t>PTFU</t>
-  </si>
-  <si>
-    <t>Implement Sredictio Updater program</t>
-  </si>
-  <si>
-    <t>Implement a working GUI for Sredictio</t>
+    <t>Waiting to implement them to the GUI functions</t>
   </si>
 </sst>
 </file>
@@ -904,7 +907,7 @@
         <v>6</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G2" s="14"/>
     </row>
@@ -920,10 +923,10 @@
       </c>
       <c r="D3" s="3"/>
       <c r="F3" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -946,7 +949,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>7</v>
@@ -1116,7 +1119,7 @@
         <v>6</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G2" s="14"/>
     </row>
@@ -1125,37 +1128,39 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="3"/>
       <c r="F3" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>3</v>

--- a/Extras/Sredictio Update Plans.xlsx
+++ b/Extras/Sredictio Update Plans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Guest1/PycharmProjects/Sredictio/Extras/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD84F8A2-7838-084E-9D02-DCFF0118F646}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF4E632-D19B-EC4C-AE8C-18408D1743C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15500" activeTab="1" xr2:uid="{3232E5AE-6A7F-B64A-B3E6-CB156A166CEB}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="41">
   <si>
     <t>No.</t>
   </si>
@@ -213,6 +213,153 @@
   </si>
   <si>
     <t>Waiting to implement them to the GUI functions</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Fix </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="American Typewriter"/>
+        <family val="1"/>
+      </rPr>
+      <t>TradingEnv.py</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'s rendering method</t>
+    </r>
+  </si>
+  <si>
+    <t>PENDING</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Investigation of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="American Typewriter"/>
+        <family val="1"/>
+      </rPr>
+      <t>TradingEnv.py</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'s observation state is underway; may take some time.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Resolve </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Issue #6: Model Prediction is too Consistent</t>
+    </r>
+  </si>
+  <si>
+    <t>5a</t>
+  </si>
+  <si>
+    <t>Fix observation state</t>
+  </si>
+  <si>
+    <t>5b</t>
+  </si>
+  <si>
+    <t>5c</t>
+  </si>
+  <si>
+    <t>Retrain the A2C model</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Regenerate </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="American Typewriter"/>
+        <family val="1"/>
+      </rPr>
+      <t>Hyperparams.db</t>
+    </r>
+  </si>
+  <si>
+    <t>Bug in observation state is unclear; will need time</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Will fix </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Issue #6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> first</t>
+    </r>
+  </si>
+  <si>
+    <t>Fix bugs</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Fixing </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Issue #6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1133,7 +1280,9 @@
       <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="F3" s="11" t="s">
         <v>22</v>
       </c>
@@ -1167,53 +1316,83 @@
       </c>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="5"/>
+      <c r="B6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
+      <c r="B7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
         <v>6</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
-        <v>7</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
-        <v>8</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
-        <v>9</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="3"/>
+      <c r="B11" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Extras/Sredictio Update Plans.xlsx
+++ b/Extras/Sredictio Update Plans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Guest1/PycharmProjects/Sredictio/Extras/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF4E632-D19B-EC4C-AE8C-18408D1743C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12F335A-BE08-524F-A386-B5913B44DFE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15500" activeTab="1" xr2:uid="{3232E5AE-6A7F-B64A-B3E6-CB156A166CEB}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="42">
   <si>
     <t>No.</t>
   </si>
@@ -360,6 +360,9 @@
       </rPr>
       <t>.</t>
     </r>
+  </si>
+  <si>
+    <t>Implement a "Test Mode" to test Sredictio</t>
   </si>
 </sst>
 </file>
@@ -504,7 +507,47 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="24">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -1184,40 +1227,40 @@
     <mergeCell ref="F2:G2"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:C8 C10 C12:C1048576">
-    <cfRule type="containsText" dxfId="19" priority="8" operator="containsText" text="PENDING">
+    <cfRule type="containsText" dxfId="23" priority="8" operator="containsText" text="PENDING">
       <formula>NOT(ISERROR(SEARCH("PENDING",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="9" operator="containsText" text="YES">
+    <cfRule type="containsText" dxfId="22" priority="9" operator="containsText" text="YES">
       <formula>NOT(ISERROR(SEARCH("YES",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="10" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="21" priority="10" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="containsText" dxfId="16" priority="5" operator="containsText" text="PENDING">
+    <cfRule type="containsText" dxfId="20" priority="5" operator="containsText" text="PENDING">
       <formula>NOT(ISERROR(SEARCH("PENDING",C9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="6" operator="containsText" text="YES">
+    <cfRule type="containsText" dxfId="19" priority="6" operator="containsText" text="YES">
       <formula>NOT(ISERROR(SEARCH("YES",C9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="7" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="18" priority="7" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",C9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="containsText" dxfId="13" priority="2" operator="containsText" text="PENDING">
+    <cfRule type="containsText" dxfId="17" priority="2" operator="containsText" text="PENDING">
       <formula>NOT(ISERROR(SEARCH("PENDING",C11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="3" operator="containsText" text="YES">
+    <cfRule type="containsText" dxfId="16" priority="3" operator="containsText" text="YES">
       <formula>NOT(ISERROR(SEARCH("YES",C11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="15" priority="4" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",C11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="PTFU">
+    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="PTFU">
       <formula>NOT(ISERROR(SEARCH("PTFU",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1227,7 +1270,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BF3DC79-FF58-EF4D-9F3A-55EB212D1861}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="157" zoomScaleNormal="157" workbookViewId="0">
       <selection sqref="A1:D1"/>
@@ -1394,47 +1437,75 @@
         <v>40</v>
       </c>
     </row>
+    <row r="12" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <v>7</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F2:G2"/>
   </mergeCells>
-  <conditionalFormatting sqref="C2:C8 C10 C12:C1048576">
-    <cfRule type="containsText" dxfId="9" priority="8" operator="containsText" text="PENDING">
+  <conditionalFormatting sqref="C2:C8 C10 C13:C1048576">
+    <cfRule type="containsText" dxfId="13" priority="12" operator="containsText" text="PENDING">
       <formula>NOT(ISERROR(SEARCH("PENDING",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="YES">
+    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="YES">
       <formula>NOT(ISERROR(SEARCH("YES",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="10" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="11" priority="14" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="PENDING">
+    <cfRule type="containsText" dxfId="10" priority="9" operator="containsText" text="PENDING">
       <formula>NOT(ISERROR(SEARCH("PENDING",C9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="YES">
+    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="YES">
       <formula>NOT(ISERROR(SEARCH("YES",C9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="7" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",C9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
+    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="PENDING">
+      <formula>NOT(ISERROR(SEARCH("PENDING",C11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="YES">
+      <formula>NOT(ISERROR(SEARCH("YES",C11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="8" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",C11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C11 C13:C1048576">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="PTFU">
+      <formula>NOT(ISERROR(SEARCH("PTFU",C1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
     <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="PENDING">
-      <formula>NOT(ISERROR(SEARCH("PENDING",C11)))</formula>
+      <formula>NOT(ISERROR(SEARCH("PENDING",C12)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="YES">
-      <formula>NOT(ISERROR(SEARCH("YES",C11)))</formula>
+      <formula>NOT(ISERROR(SEARCH("YES",C12)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="NO">
-      <formula>NOT(ISERROR(SEARCH("NO",C11)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NO",C12)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C1048576">
+  <conditionalFormatting sqref="C12">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="PTFU">
-      <formula>NOT(ISERROR(SEARCH("PTFU",C1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("PTFU",C12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Extras/Sredictio Update Plans.xlsx
+++ b/Extras/Sredictio Update Plans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Guest1/PycharmProjects/Sredictio/Extras/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12F335A-BE08-524F-A386-B5913B44DFE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E2581F3-D19B-234E-AFAC-C6EC90961020}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15500" activeTab="1" xr2:uid="{3232E5AE-6A7F-B64A-B3E6-CB156A166CEB}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="39">
   <si>
     <t>No.</t>
   </si>
@@ -242,30 +242,34 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Investigation of </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="American Typewriter"/>
-        <family val="1"/>
-      </rPr>
-      <t>TradingEnv.py</t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve">Resolve </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>'s observation state is underway; may take some time.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Resolve </t>
+      <t>Issue #6: Model Prediction is too Consistent</t>
+    </r>
+  </si>
+  <si>
+    <t>5a</t>
+  </si>
+  <si>
+    <t>Fix observation state</t>
+  </si>
+  <si>
+    <t>5b</t>
+  </si>
+  <si>
+    <t>Retrain the A2C model</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Will fix </t>
     </r>
     <r>
       <rPr>
@@ -275,55 +279,28 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Issue #6: Model Prediction is too Consistent</t>
-    </r>
-  </si>
-  <si>
-    <t>5a</t>
-  </si>
-  <si>
-    <t>Fix observation state</t>
-  </si>
-  <si>
-    <t>5b</t>
-  </si>
-  <si>
-    <t>5c</t>
-  </si>
-  <si>
-    <t>Retrain the A2C model</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Regenerate </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="American Typewriter"/>
-        <family val="1"/>
-      </rPr>
-      <t>Hyperparams.db</t>
-    </r>
-  </si>
-  <si>
-    <t>Bug in observation state is unclear; will need time</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Will fix </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>Issue #6</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Issue #6</t>
-    </r>
+      <t xml:space="preserve"> first</t>
+    </r>
+  </si>
+  <si>
+    <t>Fix bugs</t>
+  </si>
+  <si>
+    <t>Implement a "Test Mode" to test Sredictio</t>
+  </si>
+  <si>
+    <t>Refer to https://github.com/Ryan-Kan/Sredictio/issues/6#issuecomment-568670544 for the cause of this issue</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -331,15 +308,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> first</t>
-    </r>
-  </si>
-  <si>
-    <t>Fix bugs</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Fixing </t>
+      <t xml:space="preserve">An issue, </t>
     </r>
     <r>
       <rPr>
@@ -349,7 +318,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Issue #6</t>
+      <t>Issue #7</t>
     </r>
     <r>
       <rPr>
@@ -358,11 +327,8 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>Implement a "Test Mode" to test Sredictio</t>
+      <t>, is still present. Will be fixed.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -465,7 +431,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -503,11 +469,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="21">
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -545,36 +514,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1227,40 +1166,40 @@
     <mergeCell ref="F2:G2"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:C8 C10 C12:C1048576">
-    <cfRule type="containsText" dxfId="23" priority="8" operator="containsText" text="PENDING">
+    <cfRule type="containsText" dxfId="20" priority="8" operator="containsText" text="PENDING">
       <formula>NOT(ISERROR(SEARCH("PENDING",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="9" operator="containsText" text="YES">
+    <cfRule type="containsText" dxfId="19" priority="9" operator="containsText" text="YES">
       <formula>NOT(ISERROR(SEARCH("YES",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="10" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="18" priority="10" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="containsText" dxfId="20" priority="5" operator="containsText" text="PENDING">
+    <cfRule type="containsText" dxfId="17" priority="5" operator="containsText" text="PENDING">
       <formula>NOT(ISERROR(SEARCH("PENDING",C9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="6" operator="containsText" text="YES">
+    <cfRule type="containsText" dxfId="16" priority="6" operator="containsText" text="YES">
       <formula>NOT(ISERROR(SEARCH("YES",C9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="7" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="15" priority="7" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",C9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="containsText" dxfId="17" priority="2" operator="containsText" text="PENDING">
+    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="PENDING">
       <formula>NOT(ISERROR(SEARCH("PENDING",C11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="3" operator="containsText" text="YES">
+    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="YES">
       <formula>NOT(ISERROR(SEARCH("YES",C11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="4" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="12" priority="4" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",C11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="PTFU">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="PTFU">
       <formula>NOT(ISERROR(SEARCH("PTFU",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1270,7 +1209,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BF3DC79-FF58-EF4D-9F3A-55EB212D1861}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="157" zoomScaleNormal="157" workbookViewId="0">
       <selection sqref="A1:D1"/>
@@ -1324,7 +1263,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>22</v>
@@ -1359,7 +1298,7 @@
       </c>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -1367,145 +1306,120 @@
         <v>27</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+      <c r="B8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>32</v>
-      </c>
       <c r="C8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>37</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>36</v>
-      </c>
       <c r="C9" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>34</v>
+      <c r="A10" s="5">
+        <v>6</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
-        <v>7</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D11" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F2:G2"/>
   </mergeCells>
-  <conditionalFormatting sqref="C2:C8 C10 C13:C1048576">
-    <cfRule type="containsText" dxfId="13" priority="12" operator="containsText" text="PENDING">
+  <conditionalFormatting sqref="C2:C9 C12:C1048576">
+    <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="PENDING">
       <formula>NOT(ISERROR(SEARCH("PENDING",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="YES">
+    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="YES">
       <formula>NOT(ISERROR(SEARCH("YES",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="14" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="8" priority="14" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C9">
-    <cfRule type="containsText" dxfId="10" priority="9" operator="containsText" text="PENDING">
-      <formula>NOT(ISERROR(SEARCH("PENDING",C9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="YES">
-      <formula>NOT(ISERROR(SEARCH("YES",C9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="NO">
-      <formula>NOT(ISERROR(SEARCH("NO",C9)))</formula>
+  <conditionalFormatting sqref="C10">
+    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="PENDING">
+      <formula>NOT(ISERROR(SEARCH("PENDING",C10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="YES">
+      <formula>NOT(ISERROR(SEARCH("YES",C10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="8" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",C10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12:C1048576 C1:C10">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="PTFU">
+      <formula>NOT(ISERROR(SEARCH("PTFU",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="PENDING">
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="PENDING">
       <formula>NOT(ISERROR(SEARCH("PENDING",C11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="YES">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="YES">
       <formula>NOT(ISERROR(SEARCH("YES",C11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="8" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",C11)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C11 C13:C1048576">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="PTFU">
-      <formula>NOT(ISERROR(SEARCH("PTFU",C1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="PENDING">
-      <formula>NOT(ISERROR(SEARCH("PENDING",C12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="YES">
-      <formula>NOT(ISERROR(SEARCH("YES",C12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="NO">
-      <formula>NOT(ISERROR(SEARCH("NO",C12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
+  <conditionalFormatting sqref="C11">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="PTFU">
-      <formula>NOT(ISERROR(SEARCH("PTFU",C12)))</formula>
+      <formula>NOT(ISERROR(SEARCH("PTFU",C11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Extras/Sredictio Update Plans.xlsx
+++ b/Extras/Sredictio Update Plans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Guest1/PycharmProjects/Sredictio/Extras/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E2581F3-D19B-234E-AFAC-C6EC90961020}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B2D213-14D2-1047-85DA-5B6E2163C8B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15500" activeTab="1" xr2:uid="{3232E5AE-6A7F-B64A-B3E6-CB156A166CEB}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
   <si>
     <t>No.</t>
   </si>
@@ -256,51 +256,34 @@
     </r>
   </si>
   <si>
-    <t>5a</t>
-  </si>
-  <si>
-    <t>Fix observation state</t>
-  </si>
-  <si>
-    <t>5b</t>
-  </si>
-  <si>
-    <t>Retrain the A2C model</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Will fix </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+    <t>Fix bugs</t>
+  </si>
+  <si>
+    <t>Implement a "Test Mode" to test Sredictio</t>
+  </si>
+  <si>
+    <t>Refer to https://github.com/Ryan-Kan/Sredictio/issues/6#issuecomment-568670544 for the cause of this issue</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Issue #6</t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve">An issue, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> first</t>
-    </r>
-  </si>
-  <si>
-    <t>Fix bugs</t>
-  </si>
-  <si>
-    <t>Implement a "Test Mode" to test Sredictio</t>
-  </si>
-  <si>
-    <t>Refer to https://github.com/Ryan-Kan/Sredictio/issues/6#issuecomment-568670544 for the cause of this issue</t>
-  </si>
-  <si>
+      <t>Issue #7</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -308,27 +291,11 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">An issue, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Issue #7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
       <t>, is still present. Will be fixed.</t>
     </r>
+  </si>
+  <si>
+    <t>Implement a better Model Trainer</t>
   </si>
 </sst>
 </file>
@@ -460,6 +427,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -469,14 +439,51 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="25">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -1015,12 +1022,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:7" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
@@ -1035,10 +1042,10 @@
       <c r="D2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="14"/>
+      <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
@@ -1166,40 +1173,40 @@
     <mergeCell ref="F2:G2"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:C8 C10 C12:C1048576">
-    <cfRule type="containsText" dxfId="20" priority="8" operator="containsText" text="PENDING">
+    <cfRule type="containsText" dxfId="24" priority="8" operator="containsText" text="PENDING">
       <formula>NOT(ISERROR(SEARCH("PENDING",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="9" operator="containsText" text="YES">
+    <cfRule type="containsText" dxfId="23" priority="9" operator="containsText" text="YES">
       <formula>NOT(ISERROR(SEARCH("YES",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="10" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="22" priority="10" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="containsText" dxfId="17" priority="5" operator="containsText" text="PENDING">
+    <cfRule type="containsText" dxfId="21" priority="5" operator="containsText" text="PENDING">
       <formula>NOT(ISERROR(SEARCH("PENDING",C9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="6" operator="containsText" text="YES">
+    <cfRule type="containsText" dxfId="20" priority="6" operator="containsText" text="YES">
       <formula>NOT(ISERROR(SEARCH("YES",C9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="7" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="19" priority="7" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",C9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="PENDING">
+    <cfRule type="containsText" dxfId="18" priority="2" operator="containsText" text="PENDING">
       <formula>NOT(ISERROR(SEARCH("PENDING",C11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="YES">
+    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="YES">
       <formula>NOT(ISERROR(SEARCH("YES",C11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="4" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="16" priority="4" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",C11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="PTFU">
+    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="PTFU">
       <formula>NOT(ISERROR(SEARCH("PTFU",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1209,7 +1216,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BF3DC79-FF58-EF4D-9F3A-55EB212D1861}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="157" zoomScaleNormal="157" workbookViewId="0">
       <selection sqref="A1:D1"/>
@@ -1227,12 +1234,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:7" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
@@ -1247,10 +1254,10 @@
       <c r="D2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="14"/>
+      <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
@@ -1262,9 +1269,7 @@
       <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="D3" s="3"/>
       <c r="F3" s="11" t="s">
         <v>22</v>
       </c>
@@ -1308,8 +1313,8 @@
       <c r="C6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="15" t="s">
-        <v>38</v>
+      <c r="D6" s="12" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -1323,103 +1328,107 @@
         <v>3</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="5">
+        <v>6</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="C8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>7</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>33</v>
-      </c>
       <c r="C9" s="5" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
-        <v>7</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F2:G2"/>
   </mergeCells>
-  <conditionalFormatting sqref="C2:C9 C12:C1048576">
-    <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="PENDING">
+  <conditionalFormatting sqref="C2:C7 C11:C1048576">
+    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="PENDING">
       <formula>NOT(ISERROR(SEARCH("PENDING",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="YES">
+    <cfRule type="containsText" dxfId="13" priority="17" operator="containsText" text="YES">
       <formula>NOT(ISERROR(SEARCH("YES",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="14" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="12" priority="18" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",C2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="PENDING">
+      <formula>NOT(ISERROR(SEARCH("PENDING",C8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="YES">
+      <formula>NOT(ISERROR(SEARCH("YES",C8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="12" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",C8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11:C1048576 C1:C8">
+    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="PTFU">
+      <formula>NOT(ISERROR(SEARCH("PTFU",C1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9">
+    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="PENDING">
+      <formula>NOT(ISERROR(SEARCH("PENDING",C9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="YES">
+      <formula>NOT(ISERROR(SEARCH("YES",C9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="8" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",C9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="PTFU">
+      <formula>NOT(ISERROR(SEARCH("PTFU",C9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="PENDING">
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="PENDING">
       <formula>NOT(ISERROR(SEARCH("PENDING",C10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="YES">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="YES">
       <formula>NOT(ISERROR(SEARCH("YES",C10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="8" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",C10)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C12:C1048576 C1:C10">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="PTFU">
-      <formula>NOT(ISERROR(SEARCH("PTFU",C1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11">
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="PENDING">
-      <formula>NOT(ISERROR(SEARCH("PENDING",C11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="YES">
-      <formula>NOT(ISERROR(SEARCH("YES",C11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="NO">
-      <formula>NOT(ISERROR(SEARCH("NO",C11)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11">
+  <conditionalFormatting sqref="C10">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="PTFU">
-      <formula>NOT(ISERROR(SEARCH("PTFU",C11)))</formula>
+      <formula>NOT(ISERROR(SEARCH("PTFU",C10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Extras/Sredictio Update Plans.xlsx
+++ b/Extras/Sredictio Update Plans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Guest1/PycharmProjects/Sredictio/Extras/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B2D213-14D2-1047-85DA-5B6E2163C8B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AEAF684-42A0-1A4A-AE47-85A50F2D841B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15500" activeTab="1" xr2:uid="{3232E5AE-6A7F-B64A-B3E6-CB156A166CEB}"/>
   </bookViews>
@@ -1351,7 +1351,7 @@
         <v>31</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="D9" s="3"/>
     </row>

--- a/Extras/Sredictio Update Plans.xlsx
+++ b/Extras/Sredictio Update Plans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Guest1/PycharmProjects/Sredictio/Extras/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AEAF684-42A0-1A4A-AE47-85A50F2D841B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D370D58C-4A1F-CD4F-A0C0-388D189E6F1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15500" activeTab="1" xr2:uid="{3232E5AE-6A7F-B64A-B3E6-CB156A166CEB}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
   <si>
     <t>No.</t>
   </si>
@@ -296,6 +296,9 @@
   </si>
   <si>
     <t>Implement a better Model Trainer</t>
+  </si>
+  <si>
+    <t>Implement a new sentiment getter</t>
   </si>
 </sst>
 </file>
@@ -443,7 +446,47 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="29">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -1173,40 +1216,40 @@
     <mergeCell ref="F2:G2"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:C8 C10 C12:C1048576">
-    <cfRule type="containsText" dxfId="24" priority="8" operator="containsText" text="PENDING">
+    <cfRule type="containsText" dxfId="28" priority="8" operator="containsText" text="PENDING">
       <formula>NOT(ISERROR(SEARCH("PENDING",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="9" operator="containsText" text="YES">
+    <cfRule type="containsText" dxfId="27" priority="9" operator="containsText" text="YES">
       <formula>NOT(ISERROR(SEARCH("YES",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="10" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="26" priority="10" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="containsText" dxfId="21" priority="5" operator="containsText" text="PENDING">
+    <cfRule type="containsText" dxfId="25" priority="5" operator="containsText" text="PENDING">
       <formula>NOT(ISERROR(SEARCH("PENDING",C9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="6" operator="containsText" text="YES">
+    <cfRule type="containsText" dxfId="24" priority="6" operator="containsText" text="YES">
       <formula>NOT(ISERROR(SEARCH("YES",C9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="7" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="23" priority="7" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",C9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="containsText" dxfId="18" priority="2" operator="containsText" text="PENDING">
+    <cfRule type="containsText" dxfId="22" priority="2" operator="containsText" text="PENDING">
       <formula>NOT(ISERROR(SEARCH("PENDING",C11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="YES">
+    <cfRule type="containsText" dxfId="21" priority="3" operator="containsText" text="YES">
       <formula>NOT(ISERROR(SEARCH("YES",C11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="4" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="20" priority="4" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",C11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="PTFU">
+    <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="PTFU">
       <formula>NOT(ISERROR(SEARCH("PTFU",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1216,7 +1259,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BF3DC79-FF58-EF4D-9F3A-55EB212D1861}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="157" zoomScaleNormal="157" workbookViewId="0">
       <selection sqref="A1:D1"/>
@@ -1267,7 +1310,7 @@
         <v>24</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="D3" s="3"/>
       <c r="F3" s="11" t="s">
@@ -1366,69 +1409,97 @@
         <v>5</v>
       </c>
       <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>9</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F2:G2"/>
   </mergeCells>
-  <conditionalFormatting sqref="C2:C7 C11:C1048576">
-    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="PENDING">
+  <conditionalFormatting sqref="C2:C7 C12:C1048576">
+    <cfRule type="containsText" dxfId="18" priority="20" operator="containsText" text="PENDING">
       <formula>NOT(ISERROR(SEARCH("PENDING",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="17" operator="containsText" text="YES">
+    <cfRule type="containsText" dxfId="17" priority="21" operator="containsText" text="YES">
       <formula>NOT(ISERROR(SEARCH("YES",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="18" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="16" priority="22" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="PENDING">
+    <cfRule type="containsText" dxfId="15" priority="14" operator="containsText" text="PENDING">
       <formula>NOT(ISERROR(SEARCH("PENDING",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="YES">
+    <cfRule type="containsText" dxfId="14" priority="15" operator="containsText" text="YES">
       <formula>NOT(ISERROR(SEARCH("YES",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="12" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="13" priority="16" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C11:C1048576 C1:C8">
-    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="PTFU">
+  <conditionalFormatting sqref="C12:C1048576 C1:C8">
+    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="PTFU">
       <formula>NOT(ISERROR(SEARCH("PTFU",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="PENDING">
+    <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="PENDING">
       <formula>NOT(ISERROR(SEARCH("PENDING",C9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="YES">
+    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="YES">
       <formula>NOT(ISERROR(SEARCH("YES",C9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="8" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="9" priority="12" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",C9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="PTFU">
+    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="PTFU">
       <formula>NOT(ISERROR(SEARCH("PTFU",C9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="PENDING">
+    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="PENDING">
       <formula>NOT(ISERROR(SEARCH("PENDING",C10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="YES">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="YES">
       <formula>NOT(ISERROR(SEARCH("YES",C10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="5" priority="8" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",C10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="PTFU">
+      <formula>NOT(ISERROR(SEARCH("PTFU",C10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11">
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="PENDING">
+      <formula>NOT(ISERROR(SEARCH("PENDING",C11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="YES">
+      <formula>NOT(ISERROR(SEARCH("YES",C11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",C11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="PTFU">
-      <formula>NOT(ISERROR(SEARCH("PTFU",C10)))</formula>
+      <formula>NOT(ISERROR(SEARCH("PTFU",C11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
